--- a/web/templates/exam.xlsx
+++ b/web/templates/exam.xlsx
@@ -1,5 +1,454 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\education\art\projects\arina\web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="18705" yWindow="0" windowWidth="22110" windowHeight="9780"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$32</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>Хмельницький політехнічний коледж</t>
+  </si>
+  <si>
+    <t>(прізвище, ім'я та по-батькові викладача)</t>
+  </si>
+  <si>
+    <t>Прізвище, ім'я та по-батькові студента</t>
+  </si>
+  <si>
+    <t>Оцінка</t>
+  </si>
+  <si>
+    <t>Примітка</t>
+  </si>
+  <si>
+    <t>Середній бал</t>
+  </si>
+  <si>
+    <t>(предмет)</t>
+  </si>
+  <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    з навчальної роботи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   Заступник директора </t>
+  </si>
+  <si>
+    <t>Відмінно:</t>
+  </si>
+  <si>
+    <t>Добре:</t>
+  </si>
+  <si>
+    <t>Задовільно:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      _____________________/Гуменна В.В./</t>
+  </si>
+  <si>
+    <t>Міністерство освіти і науки  України</t>
+  </si>
+  <si>
+    <t>Національного університету  "Львівська політехніка"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Зав. відділенням Програмної інженерії </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      ______________/Федосюк Г.В./</t>
+  </si>
+  <si>
+    <t>Семестр</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>Група</t>
+  </si>
+  <si>
+    <t>Викладачі</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Спеціальність</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якість - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Успішність - </t>
+  </si>
+  <si>
+    <t>Викладач:  ____________ /                  /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         %</t>
+  </si>
+  <si>
+    <t>Незадовільно:</t>
+  </si>
+  <si>
+    <t>Недопущених:</t>
+  </si>
+  <si>
+    <t>Не з'явились</t>
+  </si>
+  <si>
+    <t>Протокол екзамену</t>
+  </si>
+  <si>
+    <t>№ білета</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -345,6 +794,665 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="G6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="str">
+        <f>K101</f>
+        <v>Предмет</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="36" t="str">
+        <f>K102</f>
+        <v>Спеціальність</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="40" t="str">
+        <f>K103</f>
+        <v>Семестр</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="41" t="str">
+        <f>K104</f>
+        <v>Курс</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f>K105</f>
+        <v>Група</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="str">
+        <f>K106</f>
+        <v>Викладачі</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="14"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="H24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="H25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="240" verticalDpi="144" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>